--- a/Proyecto Interno/composicion-nut/Copia_DANE_4_DIC_2025act.xlsx
+++ b/Proyecto Interno/composicion-nut/Copia_DANE_4_DIC_2025act.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/composicion-nut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C02A0E10-A6D0-4B5A-90A4-0BF46E94461B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EDCF603-6266-45BE-A1E6-83774622CC65}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C02A0E10-A6D0-4B5A-90A4-0BF46E94461B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDB98D07-6DBC-4312-8910-2E8E385FED3D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD DANE IPC" sheetId="4" r:id="rId1"/>
@@ -958,9 +958,6 @@
     <t>Nombre del Alimento</t>
   </si>
   <si>
-    <t>codigo_articulo_DANE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Imputacion interna TCA_colombia "Trigo blando, crudo" A088. Se imputaron los valores para Fibra dietaria, Sodio, Magnesio, Potasio y Folatos. </t>
   </si>
   <si>
@@ -977,6 +974,9 @@
   </si>
   <si>
     <t>Mapeo_SIPSA</t>
+  </si>
+  <si>
+    <t>codigo_articulo</t>
   </si>
 </sst>
 </file>
@@ -1257,6 +1257,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1550,7 +1554,7 @@
   <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B92"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1578,13 +1582,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>154</v>
@@ -3506,7 +3510,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>189</v>
@@ -3607,13 +3611,13 @@
         <v>47</v>
       </c>
       <c r="C21" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>312</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>313</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>209</v>
@@ -3809,7 +3813,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>112</v>
@@ -4517,7 +4521,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>117</v>
@@ -4610,7 +4614,7 @@
         <v>24.58100558659218</v>
       </c>
       <c r="AH30" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
